--- a/Excel/Global/Unlock/Unlock.xlsx
+++ b/Excel/Global/Unlock/Unlock.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MRFramework\Excel\Global\Unlock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\TowerDefenseDemo\Excel\Global\Unlock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB81BC0-3CB6-4330-8E51-D50CD401B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2785600-EB82-42C5-8DB3-A5BA78B884CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2580" windowWidth="21945" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="4035" windowWidth="21945" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unlock" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,59 +39,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>解锁类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueBool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUnlockID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第0关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第1关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到999级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EUnlockType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第X关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级达到X级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueBool</t>
+    <t>LockDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +222,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="EUnlockType"/>
+      <sheetName val="EUnlockID"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -217,6 +234,83 @@
         <row r="4">
           <cell r="B4">
             <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="EUnlockType"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3">
+            <v>1001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1002</v>
           </cell>
         </row>
       </sheetData>
@@ -491,13 +585,13 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
@@ -512,19 +606,23 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -534,19 +632,23 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -558,8 +660,6 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -570,22 +670,23 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -593,51 +694,64 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f>[1]EUnlockType!$B$3</f>
+        <f>[1]EUnlockID!$B$3</f>
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="4">
+        <f>[2]EUnlockType!$B$4</f>
+        <v>1002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <f>[1]EUnlockType!$B$4</f>
+      <c r="A6" s="4">
+        <f>[1]EUnlockID!$B$4</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="4">
+        <f>[2]EUnlockType!$B$4</f>
+        <v>1002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="4">
+        <f>[1]EUnlockID!$B$5</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>999</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -645,88 +759,169 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="4">
+        <f>[1]EUnlockID!$B$6</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>999</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="4">
+        <f>[1]EUnlockID!$B$7</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>999</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="4">
+        <f>[1]EUnlockID!$B$8</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>999</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="4">
+        <f>[1]EUnlockID!$B$9</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>999</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="4">
+        <f>[1]EUnlockID!$B$10</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>999</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="4">
+        <f>[1]EUnlockID!$B$11</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>999</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="4">
+        <f>[1]EUnlockID!$B$12</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>999</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="4">
+        <f>[1]EUnlockID!$B$13</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>999</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4">
+        <f>[1]EUnlockID!$B$14</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <f>[2]EUnlockType!$B$3</f>
+        <v>1001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>999</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -735,7 +930,6 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -744,7 +938,6 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -753,7 +946,6 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -762,7 +954,6 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -771,7 +962,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -780,7 +970,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -791,7 +980,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -802,7 +990,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -813,7 +1000,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -824,7 +1010,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -835,7 +1020,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -846,7 +1030,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -857,7 +1040,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -868,7 +1050,6 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -879,7 +1060,6 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -890,7 +1070,6 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -901,7 +1080,6 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -912,7 +1090,6 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -923,7 +1100,6 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -934,7 +1110,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -945,7 +1120,6 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -956,7 +1130,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -967,7 +1140,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -978,7 +1150,6 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -989,7 +1160,6 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1000,7 +1170,6 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1011,7 +1180,6 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1019,7 +1187,6 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1027,7 +1194,6 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1035,7 +1201,6 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1043,7 +1208,6 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1051,7 +1215,6 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1059,7 +1222,6 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1067,7 +1229,6 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1075,7 +1236,6 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1083,7 +1243,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1091,7 +1250,6 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1099,7 +1257,6 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1107,7 +1264,6 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -1115,7 +1271,6 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1123,7 +1278,6 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1131,7 +1285,6 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1139,7 +1292,6 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1147,7 +1299,6 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1155,7 +1306,6 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1163,7 +1313,6 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1171,7 +1320,6 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -1179,7 +1327,6 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1187,7 +1334,6 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -1195,7 +1341,6 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -1203,7 +1348,6 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
